--- a/GATEWAY/A1#111BCSSRL00000/BCS/WINLAB/6.0.41.1/report-checklist.xlsx
+++ b/GATEWAY/A1#111BCSSRL00000/BCS/WINLAB/6.0.41.1/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vm-fs01.bcs.it\shares\Rep-Software\A-FSE-2\Test Case\0 AAA VALIDAZIONE\5-Referto di Medicina di Laboratorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vm-fs01\Shares\Rep-Software\A-FSE-2\Test Case\0 AAA VALIDAZIONE\5-Referto di Medicina di Laboratorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73763ED-20C5-426A-AF17-3489AD9B0B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9E13E4-3CF2-460D-A643-EC7171DBEF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="148">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -519,63 +519,6 @@
     <t>NO</t>
   </si>
   <si>
-    <t>Tue, 31 Jan 2023 13:42:03 GMT</t>
-  </si>
-  <si>
-    <t>3a13a2e9afdf3cf4</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.e817451f441092d197875d2c9956fb07eafa968660d3b296b08657420d6a6746.8aa2c18198^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>f3ab0759d07ed55f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.6dd620895c27c5f0d284414ea5858ba66f48659afa6df245d29567b9514dc96f.020f90295c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Tue, 31 Jan 2023 13:43:40 GMT</t>
-  </si>
-  <si>
-    <t>cceb422ba2a90ac5</t>
-  </si>
-  <si>
-    <t>Tue, 31 Jan 2023 14:23:40 GMT</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.2a61d9f96ae0825844058ed8e25cef0c8549d319ac527b494222ef19bd709cda.28ca54b7d4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>98d7b0b7abf7b9bc</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.bfb1daed67bf17e14dc8e1d1e7fc0e0c9954ff49a12f5ebaec659537d1ad3987.244fb0dea3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Tue, 31 Jan 2023 14:30:33 GMT</t>
-  </si>
-  <si>
-    <t>be7fe362be8928cf</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.2a61d9f96ae0825844058ed8e25cef0c8549d319ac527b494222ef19bd709cda.46542a2536^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Tue, 31 Jan 2023 14:38:21 GMT</t>
-  </si>
-  <si>
-    <t>{
-    "traceID": "575417f5669e9d98",
-    "spanID": "575417f5669e9d98",
-    "type": "/msg/jwt-validation",
-    "title": "Campo token JWT non valido.",
-    "detail": "Il codice fiscale nel campo person_id non è corretto",
-    "status": 403,
-    "instance": "/jwt-mandatory-field-malformed",
-    "workflowInstanceId": "UNKNOWN_WORKFLOW_ID"
-}</t>
-  </si>
-  <si>
     <t>575417f5669e9d98</t>
   </si>
   <si>
@@ -583,18 +526,6 @@
   </si>
   <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
-  </si>
-  <si>
-    <t>{
-    "traceID": "d3e85c807b01e9c1",
-    "spanID": "d3e85c807b01e9c1",
-    "type": "/msg/semantic",
-    "title": "Errore semantico.",
-    "detail": "[ ERRORE-45| codice fiscale 'prdcqn80b68l331j' cittadino ed operatore: 16 cifre [A-Z0-9]{16}]",
-    "status": 422,
-    "instance": "/validation/error",
-    "workflowInstanceId": "2.16.840.1.113883.2.9.2.30.4.4.8b444bfebc6e6db00b76cc2f34ff9a6e2fee6c12a84222494a014aa85bdb3ff5.68bf3198be^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"
-}</t>
   </si>
   <si>
     <t>d3e85c807b01e9c1</t>
@@ -606,18 +537,6 @@
     <t>2.16.840.1.113883.2.9.2.30.4.4.8b444bfebc6e6db00b76cc2f34ff9a6e2fee6c12a84222494a014aa85bdb3ff5.68bf3198be^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>{
-    "traceID": "89b98851935f06b3",
-    "spanID": "89b98851935f06b3",
-    "type": "/msg/semantic",
-    "title": "Errore semantico.",
-    "detail": "[ERRORE-6| L'elemento  'confidentialityCode' di ClinicalDocument DEVE avere l'attributo @code  valorizzato con 'N' o 'V', e il suo @codeSystem  con '2.16.840.1.113883.5.25']",
-    "status": 422,
-    "instance": "/validation/error",
-    "workflowInstanceId": "2.16.840.1.113883.2.9.2.30.4.4.8b444bfebc6e6db00b76cc2f34ff9a6e2fee6c12a84222494a014aa85bdb3ff5.ec337be815^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"
-}</t>
-  </si>
-  <si>
     <t>Tue, 31 Jan 2023 14:51:13 GMT</t>
   </si>
   <si>
@@ -627,18 +546,6 @@
     <t>2.16.840.1.113883.2.9.2.30.4.4.8b444bfebc6e6db00b76cc2f34ff9a6e2fee6c12a84222494a014aa85bdb3ff5.ec337be815^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>{
-    "traceID": "179627ff1d22fce4",
-    "spanID": "179627ff1d22fce4",
-    "type": "/msg/semantic",
-    "title": "Errore semantico.",
-    "detail": "[ERRORE-11| L'elemento ClinicalDocument/recordTarget/patientRole/addr DEVE riportare i sotto-elementi 'country', 'city' e 'streetAddressLine' ]",
-    "status": 422,
-    "instance": "/validation/error",
-    "workflowInstanceId": "2.16.840.1.113883.2.9.2.30.4.4.f984821b236b310798468e896bb44a653670c7b1f333cd27f19a20c28738c739.afc347dca3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"
-}</t>
-  </si>
-  <si>
     <t>179627ff1d22fce4</t>
   </si>
   <si>
@@ -646,18 +553,6 @@
   </si>
   <si>
     <t>Tue, 31 Jan 2023 14:54:39 GMT</t>
-  </si>
-  <si>
-    <t>{
-    "traceID": "08943cdd447b19dc",
-    "spanID": "08943cdd447b19dc",
-    "type": "/msg/semantic",
-    "title": "Errore semantico.",
-    "detail": "[ERRORE-14| L'elemento ClinicalDocument/recordTaget/patientRole/patient/name DEVE riportare gli elementi 'given' e 'family']",
-    "status": 422,
-    "instance": "/validation/error",
-    "workflowInstanceId": "2.16.840.1.113883.2.9.2.30.4.4.f04493c411799a5d4a0c0a7671b2be2715d9785c83948f0f63378bc878805c57.4030bc447f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"
-}</t>
   </si>
   <si>
     <t>08943cdd447b19dc</t>
@@ -675,18 +570,6 @@
     <t>2.16.840.1.113883.2.9.2.30.4.4.f04493c411799a5d4a0c0a7671b2be2715d9785c83948f0f63378bc878805c57.4c6e256f68^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>{
-    "traceID": "2a07ad62c34bcfa2",
-    "spanID": "2a07ad62c34bcfa2",
-    "type": "/msg/vocabulary",
-    "title": "Errore vocabolario.",
-    "detail": "Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.1 v2.1.0, Codes: X]",
-    "status": 400,
-    "instance": "/validation/error",
-    "workflowInstanceId": "2.16.840.1.113883.2.9.2.30.4.4.f04493c411799a5d4a0c0a7671b2be2715d9785c83948f0f63378bc878805c57.4c6e256f68^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"
-}</t>
-  </si>
-  <si>
     <t>Tue, 31 Jan 2023 15:01:00 GMT</t>
   </si>
   <si>
@@ -699,30 +582,6 @@
     <t>2.16.840.1.113883.2.9.2.30.4.4.f04493c411799a5d4a0c0a7671b2be2715d9785c83948f0f63378bc878805c57.50c4209bbe^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>{
-    "traceID": "37ccfe86a0f7d6cf",
-    "spanID": "37ccfe86a0f7d6cf",
-    "type": "/msg/semantic",
-    "title": "Errore semantico.",
-    "detail": "[ERRORE-37| inFulfillmentOf/order/priorityCode DEVE avere l'attributo '@codeSystem='2.16.840.1.113883.5.7' e @code valorizzato con uno dei seguenti valori: 'R'|'P'|'UR'|'EM' ]",
-    "status": 422,
-    "instance": "/validation/error",
-    "workflowInstanceId": "2.16.840.1.113883.2.9.2.30.4.4.f04493c411799a5d4a0c0a7671b2be2715d9785c83948f0f63378bc878805c57.50c4209bbe^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"
-}</t>
-  </si>
-  <si>
-    <t>{
-    "traceID": "d2450c70b623009f",
-    "spanID": "d2450c70b623009f",
-    "type": "/msg/syntax",
-    "title": "Errore di sintassi.",
-    "detail": "ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'priorityCode'. One of '{\"urn:hl7-org:v3\":realmCode, \"urn:hl7-org:v3\":typeId, \"urn:hl7-org:v3\":templateId, \"urn:hl7-org:v3\":id}' is expected.",
-    "status": 400,
-    "instance": "/validation/error",
-    "workflowInstanceId": "2.16.840.1.113883.2.9.2.30.4.4.f04493c411799a5d4a0c0a7671b2be2715d9785c83948f0f63378bc878805c57.7f054b51da^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"
-}</t>
-  </si>
-  <si>
     <t>d2450c70b623009f</t>
   </si>
   <si>
@@ -730,18 +589,6 @@
   </si>
   <si>
     <t>Tue, 31 Jan 2023 15:04:41 GMT</t>
-  </si>
-  <si>
-    <t>{
-    "traceID": "f423d073cb9f0158",
-    "spanID": "f423d073cb9f0158",
-    "type": "/msg/semantic",
-    "title": "Errore semantico.",
-    "detail": "[ERRORE-b1| L'elemento code della section DEVE essere valorizzato con uno dei seguenti codici LOINC individuati:\n\t\t\t\t\t\t18717-9 BANCA DEL SANGUE\n\t\t\t\t\t\t18718-7 MARCATORI CELLULARI \n\t\t\t\t\t\t18719-5 CHIMICA\n\t\t\t\t\t\t18720-3\tCOAGULAZIONE\n\t\t\t\t\t\t18721-1 MONITORAGGIO TERAPEUTICO DEI FARMACI\n\t\t\t\t\t\t18722-9 FERTILITÀ\n\t\t\t\t\t\t18723-7 EMATOLOGIA\n\t\t\t\t\t\t18724-5 HLA\n\t\t\t\t\t\t18725-2 MICROBIOLOGIA\n\t\t\t\t\t\t18727-8 SEROLOGIA\n\t\t\t\t\t\t18728-6 TOSSICOLOGIA\n\t\t\t\t\t\t18729-4 ESAMI DELLE URINE\n\t\t\t\t\t\t18767-4 EMOGASANALISI\n\t\t\t\t\t\t18768-2 CONTE CELLULARE+DIFFERENZIALE\n\t\t\t\t\t\t18769-0 SUSCETTIBILITÀ ANTIMICROBICA\n\t\t\t\t\t\t26435-8 PATOLOGIA MOLECOLARE\n\t\t\t\t\t\t26436-6 ESAMI DI LABORATORIO\n\t\t\t\t\t\t26437-4 TEST DI SENSIBILITÀ A SOSTANZE CHIMICHE\n\t\t\t\t\t\t26438-2 CITOLOGIA\n\t\t\t\t\t\t18716-1 ALLERGOLOGIA\n\t\t\t\t\t\t26439-0 PATOLOGIA CHIRURGICA]",
-    "status": 422,
-    "instance": "/validation/error",
-    "workflowInstanceId": "2.16.840.1.113883.2.9.2.30.4.4.f04493c411799a5d4a0c0a7671b2be2715d9785c83948f0f63378bc878805c57.45f0719d19^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"
-}</t>
   </si>
   <si>
     <t>f423d073cb9f0158</t>
@@ -763,18 +610,6 @@
   </si>
   <si>
     <t>In assenza del codice il tag specimenPlayingEntity non viene inserito. Questo sembra non causare alcun errore</t>
-  </si>
-  <si>
-    <t>{
-    "traceID": "49d6984280114de6",
-    "spanID": "49d6984280114de6",
-    "type": "/msg/syntax",
-    "title": "Errore di sintassi.",
-    "detail": "ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'code' is not valid with respect to its type, 'cs'.",
-    "status": 400,
-    "instance": "/validation/error",
-    "workflowInstanceId": "2.16.840.1.113883.2.9.2.30.4.4.e817451f441092d197875d2c9956fb07eafa968660d3b296b08657420d6a6746.c03cc713d3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"
-}</t>
   </si>
   <si>
     <t>49d6984280114de6</t>
@@ -804,32 +639,6 @@
     <t>138aebf41fdf2949</t>
   </si>
   <si>
-    <t>Viene registrato l'errore e il referto viene firmato senza CDA per la consegna.
-{
-    "traceID": "138aebf41fdf2949",
-    "spanID": "138aebf41fdf2949",
-    "type": "/msg/jwt-validation",
-    "title": "Campo token JWT non valido.",
-    "detail": "JWT payload: Tipologia documento diversa dalla tipologia di CDA (code - codesystem)",
-    "status": 403,
-    "instance": "/jwt-document-type",
-    "workflowInstanceId": "2.16.840.1.113883.2.9.2.30.4.4.e817451f441092d197875d2c9956fb07eafa968660d3b296b08657420d6a6746.94e7f91f97^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"
-}</t>
-  </si>
-  <si>
-    <t>Viene registrato l'errore e il referto viene firmato senza CDA per la consegna.
-{
-    "traceID": "c6776174850e6046",
-    "spanID": "c6776174850e6046",
-    "type": "/msg/jwt-validation",
-    "title": "Campo token JWT non valido.",
-    "detail": "Il campo resource_hl7_type non è valorizzato",
-    "status": 403,
-    "instance": "/jwt-mandatory-field-missing",
-    "workflowInstanceId": "UNKNOWN_WORKFLOW_ID"
-}</t>
-  </si>
-  <si>
     <t>subject_application_version:6.0.41.1</t>
   </si>
   <si>
@@ -840,6 +649,51 @@
   </si>
   <si>
     <t>B.C.S. Biomedical Computering Systems s.r.l.</t>
+  </si>
+  <si>
+    <t>Wed, 22 Feb 2023 12:26:06 GMT</t>
+  </si>
+  <si>
+    <t>ee9ab69a6fdee41b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.97ba1de8858f95281ce0cf9a40fea10243a1f8b0c0971f73bff50610f11e2a16.133e7b1067^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>9dbe6cce68213f28</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.b0f27a546661f37689c40283a00df5e72775a631a7b6a1b86f1a9389d040f15a.dbb1761b7d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Wed, 22 Feb 2023 12:28:42 GMT</t>
+  </si>
+  <si>
+    <t>5d9d1e09466fea79</t>
+  </si>
+  <si>
+    <t>Wed, 22 Feb 2023 12:32:14 GMT</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.23ab8e767678d86dc1df1242ef09b159d8a82755e07755332c869c90c67e7931.72c98081b8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>61d78747016c6611</t>
+  </si>
+  <si>
+    <t>Wed, 22 Feb 2023 12:37:35 GMT</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.41f38635a0684006708dae4eb62628a5010565a4fae71009d4f2479ed568f80b.0085b7db55^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>8be4a775f7223f27</t>
+  </si>
+  <si>
+    <t>Wed, 22 Feb 2023 12:41:12 GMT</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.6fbaa8f66465516ecefdef35c29e68a2674a24f5565d3fc34f15000ac2af6e27.d4ade84f4a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2765,11 +2619,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O873"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F27" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2806,7 +2660,7 @@
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="44" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="D2" s="43"/>
       <c r="F2" s="7"/>
@@ -2826,7 +2680,7 @@
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="51" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="D3" s="43"/>
       <c r="F3" s="7"/>
@@ -2844,7 +2698,7 @@
       <c r="A4" s="47"/>
       <c r="B4" s="48"/>
       <c r="C4" s="51" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="D4" s="43"/>
       <c r="E4" s="2"/>
@@ -2863,7 +2717,7 @@
       <c r="A5" s="49"/>
       <c r="B5" s="50"/>
       <c r="C5" s="51" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="D5" s="43"/>
       <c r="F5" s="7"/>
@@ -2919,7 +2773,7 @@
       <c r="N8" s="9"/>
       <c r="O8" s="6"/>
     </row>
-    <row r="9" spans="1:15" ht="14.25" customHeight="1" thickBot="1">
+    <row r="9" spans="1:15" ht="18.600000000000001" thickBot="1">
       <c r="A9" s="11" t="s">
         <v>10</v>
       </c>
@@ -2983,16 +2837,16 @@
         <v>28</v>
       </c>
       <c r="F10" s="17">
-        <v>44957</v>
+        <v>44979</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="19" t="s">
@@ -3022,16 +2876,16 @@
         <v>30</v>
       </c>
       <c r="F11" s="17">
-        <v>44957</v>
+        <v>44979</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="J11" s="19"/>
       <c r="K11" s="19" t="s">
@@ -3061,16 +2915,16 @@
         <v>32</v>
       </c>
       <c r="F12" s="17">
-        <v>44957</v>
+        <v>44979</v>
       </c>
       <c r="G12" s="37" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="I12" s="37" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="J12" s="19"/>
       <c r="K12" s="19" t="s">
@@ -3100,16 +2954,16 @@
         <v>34</v>
       </c>
       <c r="F13" s="17">
-        <v>44957</v>
+        <v>44979</v>
       </c>
       <c r="G13" s="37" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="H13" s="37" t="s">
-        <v>98</v>
+        <v>145</v>
       </c>
       <c r="I13" s="37" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="J13" s="19"/>
       <c r="K13" s="19" t="s">
@@ -3139,16 +2993,16 @@
         <v>36</v>
       </c>
       <c r="F14" s="17">
-        <v>44227</v>
+        <v>44979</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="H14" s="37" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="I14" s="37" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="J14" s="19"/>
       <c r="K14" s="19" t="s">
@@ -3161,7 +3015,7 @@
       <c r="N14" s="20"/>
       <c r="O14" s="21"/>
     </row>
-    <row r="15" spans="1:15" ht="187.2">
+    <row r="15" spans="1:15" ht="100.8">
       <c r="A15" s="14">
         <v>28</v>
       </c>
@@ -3181,16 +3035,16 @@
         <v>44957</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="H15" s="37" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="I15" s="37" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="J15" s="38" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="K15" s="19" t="s">
         <v>44</v>
@@ -3204,7 +3058,7 @@
       </c>
       <c r="O15" s="21"/>
     </row>
-    <row r="16" spans="1:15" ht="230.4">
+    <row r="16" spans="1:15" ht="115.2">
       <c r="A16" s="14">
         <v>36</v>
       </c>
@@ -3224,18 +3078,20 @@
         <v>44957</v>
       </c>
       <c r="G16" s="37" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="H16" s="37" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="I16" s="37" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="J16" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="K16" s="19"/>
+        <v>123</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>44</v>
+      </c>
       <c r="L16" s="19" t="s">
         <v>86</v>
       </c>
@@ -3268,7 +3124,7 @@
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
       <c r="J17" s="38" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="K17" s="19" t="s">
         <v>44</v>
@@ -3282,7 +3138,7 @@
       </c>
       <c r="O17" s="21"/>
     </row>
-    <row r="18" spans="1:15" ht="158.4">
+    <row r="18" spans="1:15" ht="115.2">
       <c r="A18" s="14">
         <v>52</v>
       </c>
@@ -3302,16 +3158,16 @@
         <v>44957</v>
       </c>
       <c r="G18" s="37" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="H18" s="37" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="I18" s="37" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="J18" s="38" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="K18" s="19" t="s">
         <v>44</v>
@@ -3325,7 +3181,7 @@
       </c>
       <c r="O18" s="21"/>
     </row>
-    <row r="19" spans="1:15" ht="216">
+    <row r="19" spans="1:15" ht="115.2">
       <c r="A19" s="14">
         <v>53</v>
       </c>
@@ -3345,16 +3201,16 @@
         <v>44957</v>
       </c>
       <c r="G19" s="37" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="H19" s="37" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="I19" s="37" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="J19" s="38" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="K19" s="19" t="s">
         <v>44</v>
@@ -3368,7 +3224,7 @@
       </c>
       <c r="O19" s="21"/>
     </row>
-    <row r="20" spans="1:15" ht="230.4">
+    <row r="20" spans="1:15" ht="115.2">
       <c r="A20" s="14">
         <v>54</v>
       </c>
@@ -3388,28 +3244,30 @@
         <v>44227</v>
       </c>
       <c r="G20" s="37" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="H20" s="37" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="I20" s="37" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="J20" s="38" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="K20" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="L20" s="19"/>
+      <c r="L20" s="19" t="s">
+        <v>86</v>
+      </c>
       <c r="M20" s="19"/>
       <c r="N20" s="20" t="s">
         <v>44</v>
       </c>
       <c r="O20" s="21"/>
     </row>
-    <row r="21" spans="1:15" ht="230.4">
+    <row r="21" spans="1:15" ht="115.2">
       <c r="A21" s="14">
         <v>55</v>
       </c>
@@ -3429,16 +3287,16 @@
         <v>44957</v>
       </c>
       <c r="G21" s="37" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="H21" s="37" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="I21" s="37" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="J21" s="38" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="K21" s="19" t="s">
         <v>44</v>
@@ -3452,7 +3310,7 @@
       </c>
       <c r="O21" s="21"/>
     </row>
-    <row r="22" spans="1:15" ht="216">
+    <row r="22" spans="1:15" ht="115.2">
       <c r="A22" s="14">
         <v>56</v>
       </c>
@@ -3472,16 +3330,16 @@
         <v>44957</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="H22" s="37" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="I22" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="J22" s="38" t="s">
         <v>123</v>
-      </c>
-      <c r="J22" s="38" t="s">
-        <v>120</v>
       </c>
       <c r="K22" s="19" t="s">
         <v>44</v>
@@ -3495,7 +3353,7 @@
       </c>
       <c r="O22" s="21"/>
     </row>
-    <row r="23" spans="1:15" ht="216">
+    <row r="23" spans="1:15" ht="115.2">
       <c r="A23" s="14">
         <v>57</v>
       </c>
@@ -3515,16 +3373,16 @@
         <v>44957</v>
       </c>
       <c r="G23" s="37" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="H23" s="37" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="I23" s="37" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="J23" s="38" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K23" s="19" t="s">
         <v>44</v>
@@ -3558,16 +3416,16 @@
         <v>44957</v>
       </c>
       <c r="G24" s="37" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="H24" s="37" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="I24" s="37" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="J24" s="38" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="K24" s="19" t="s">
         <v>44</v>
@@ -3581,7 +3439,7 @@
       </c>
       <c r="O24" s="21"/>
     </row>
-    <row r="25" spans="1:15" ht="244.8">
+    <row r="25" spans="1:15" ht="115.2">
       <c r="A25" s="14">
         <v>59</v>
       </c>
@@ -3601,16 +3459,16 @@
         <v>44957</v>
       </c>
       <c r="G25" s="37" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="H25" s="37" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="I25" s="37" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="J25" s="38" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="K25" s="19" t="s">
         <v>44</v>
@@ -3624,7 +3482,7 @@
       </c>
       <c r="O25" s="21"/>
     </row>
-    <row r="26" spans="1:15" ht="409.6">
+    <row r="26" spans="1:15" ht="115.2">
       <c r="A26" s="14">
         <v>60</v>
       </c>
@@ -3644,26 +3502,30 @@
         <v>44957</v>
       </c>
       <c r="G26" s="37" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="H26" s="37" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="I26" s="37" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="J26" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
+        <v>123</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L26" s="19" t="s">
+        <v>86</v>
+      </c>
       <c r="M26" s="19"/>
       <c r="N26" s="20" t="s">
         <v>44</v>
       </c>
       <c r="O26" s="21"/>
     </row>
-    <row r="27" spans="1:15" ht="169.5" customHeight="1">
+    <row r="27" spans="1:15" ht="169.5" customHeight="1" thickBot="1">
       <c r="A27" s="14">
         <v>61</v>
       </c>
@@ -3683,13 +3545,13 @@
         <v>44227</v>
       </c>
       <c r="G27" s="37" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="H27" s="37" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="I27" s="37" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="J27" s="19"/>
       <c r="K27" s="19" t="s">
@@ -3703,10 +3565,10 @@
         <v>44</v>
       </c>
       <c r="O27" s="39" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="244.8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="115.2">
       <c r="A28" s="14">
         <v>62</v>
       </c>
@@ -3726,16 +3588,16 @@
         <v>44227</v>
       </c>
       <c r="G28" s="37" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="H28" s="37" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="I28" s="37" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="J28" s="38" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="K28" s="19" t="s">
         <v>44</v>

--- a/GATEWAY/A1#111BCSSRL00000/BCS/WINLAB/6.0.41.1/report-checklist.xlsx
+++ b/GATEWAY/A1#111BCSSRL00000/BCS/WINLAB/6.0.41.1/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vm-fs01\Shares\Rep-Software\A-FSE-2\Test Case\0 AAA VALIDAZIONE\5-Referto di Medicina di Laboratorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vm-fs01.bcs.it\Shares\Rep-Software\A-FSE-2\Test Case\0 AAA VALIDAZIONE\5-Referto di Medicina di Laboratorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9E13E4-3CF2-460D-A643-EC7171DBEF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FE3B21-EE09-4E32-80B3-D728CD49A543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="148">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -2620,10 +2620,10 @@
   <dimension ref="A1:O873"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -3553,7 +3553,9 @@
       <c r="I27" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="J27" s="19"/>
+      <c r="J27" s="39" t="s">
+        <v>119</v>
+      </c>
       <c r="K27" s="19" t="s">
         <v>44</v>
       </c>

--- a/GATEWAY/A1#111BCSSRL00000/BCS/WINLAB/6.0.41.1/report-checklist.xlsx
+++ b/GATEWAY/A1#111BCSSRL00000/BCS/WINLAB/6.0.41.1/report-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vm-fs01.bcs.it\Shares\Rep-Software\A-FSE-2\Test Case\0 AAA VALIDAZIONE\5-Referto di Medicina di Laboratorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vm-fs01.bcs.it\shares\Rep-Software\A-FSE-2\Test Case\0 AAA VALIDAZIONE\5-Referto di Medicina di Laboratorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FE3B21-EE09-4E32-80B3-D728CD49A543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B65E847-4B11-4B9D-A632-B61F24ACF9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prerequisiti" sheetId="1" r:id="rId1"/>
@@ -687,13 +687,13 @@
     <t>2.16.840.1.113883.2.9.2.30.4.4.41f38635a0684006708dae4eb62628a5010565a4fae71009d4f2479ed568f80b.0085b7db55^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>8be4a775f7223f27</t>
+    <t>Fri, 24 Mar 2023 08:29:40 GMT</t>
   </si>
   <si>
-    <t>Wed, 22 Feb 2023 12:41:12 GMT</t>
+    <t>a6a1ab8c6ecd6e7c</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.6fbaa8f66465516ecefdef35c29e68a2674a24f5565d3fc34f15000ac2af6e27.d4ade84f4a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.4b7cc514d2683f7b65bd38d3a4d018d15454c35e0dff4befb7885d51565ab08f.109d684369^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2620,10 +2620,10 @@
   <dimension ref="A1:O873"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2954,13 +2954,13 @@
         <v>34</v>
       </c>
       <c r="F13" s="17">
-        <v>44979</v>
+        <v>45009</v>
       </c>
       <c r="G13" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="H13" s="37" t="s">
         <v>146</v>
-      </c>
-      <c r="H13" s="37" t="s">
-        <v>145</v>
       </c>
       <c r="I13" s="37" t="s">
         <v>147</v>

--- a/GATEWAY/A1#111BCSSRL00000/BCS/WINLAB/6.0.41.1/report-checklist.xlsx
+++ b/GATEWAY/A1#111BCSSRL00000/BCS/WINLAB/6.0.41.1/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vm-fs01.bcs.it\shares\Rep-Software\A-FSE-2\Test Case\0 AAA VALIDAZIONE\5-Referto di Medicina di Laboratorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B65E847-4B11-4B9D-A632-B61F24ACF9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACCFED2-449F-4D04-874B-50805635AFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TestCases!$A$9:$O$28</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mhXj7RfszpgZKzxg8oD/Tet7lb94w=="/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="148">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -600,18 +600,6 @@
     <t>Tue, 31 Jan 2023 15:08:37 GMT</t>
   </si>
   <si>
-    <t>44d3cd7bdace43c3</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.f04493c411799a5d4a0c0a7671b2be2715d9785c83948f0f63378bc878805c57.d3c42bf0b0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Tue, 31 Jan 2023 15:10:46 GMT</t>
-  </si>
-  <si>
-    <t>In assenza del codice il tag specimenPlayingEntity non viene inserito. Questo sembra non causare alcun errore</t>
-  </si>
-  <si>
     <t>49d6984280114de6</t>
   </si>
   <si>
@@ -619,9 +607,6 @@
   </si>
   <si>
     <t>Tue, 31 Jan 2023 15:21:41 GMT</t>
-  </si>
-  <si>
-    <t>Viene registrato l'errore e il referto viene firmato senza CDA per la consegna.</t>
   </si>
   <si>
     <t>Tue, 31 Jan 2023 15:29:38 GMT</t>
@@ -694,6 +679,27 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.30.4.4.4b7cc514d2683f7b65bd38d3a4d018d15454c35e0dff4befb7885d51565ab08f.109d684369^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>viene visualizzato il seguente messaggio di errore: "Errore nella validazione del CDA2: " + la descrizione dell'errore ritornata dal gateway.
+L'applicativo può essere configurato per comportarsi nei seguenti modi a seconda delle disposizioni regionali e delle scelte aziendali:
+1. L'errore è bloccante e il referto torna in coda di firma. Dopo che l'errore è stato corretto dal medico o dal personale amministrativo, il referto può essere firmato nuovamente e inviato al respoitory aziendale  che si occuperà dell'invio a FSE o al middelware regionale che invierà il documento al FSE.
+2. Il referto viene comunque firmato e inviato al repository aziendale per la consegna al paziente e la consultazione interna. Una volta corretto l'errore,  il medico può  generare e firmare un referto sostitutivo e archiviarlo su respoitory aziendale che si occuperà dell'invio a FSE o al middelware regionale che invierà il documento al FSE.</t>
+  </si>
+  <si>
+    <t>viene visualizzato il seguente messaggio di errore: "Errore nella validazione del CDA2: timeout nella chiamata al gateway FSE".
+L'applicativo può essere configurato per comportarsi nei seguenti modi a seconda delle disposizioni regionali e delle scelte aziendali:
+1. L'errore è bloccante e il referto torna in coda di firma. Il medico può ripetere la firma e nel caso abbia successo il documento viene archiviato su respoitory aziendale che si occuperà dell'invio a FSE o al middelware regionale che invierà il documento al FSE.
+2. Il referto viene comunque firmato e inviato al repository aziendale per la consegna al paziente e la consultazione interna. Il medico può successivamente  generare e firmare un referto sostitutivo e archiviarlo su respoitory aziendale che si occuperà dell'invio a FSE o al middelware regionale che invierà il documento al FSE.</t>
+  </si>
+  <si>
+    <t>b4cfaf169fe07bc7</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.f04493c411799a5d4a0c0a7671b2be2715d9785c83948f0f63378bc878805c57.acf0462a0e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Fri, 31 Mar 2023 15:35:35 GMT</t>
   </si>
 </sst>
 </file>
@@ -2620,10 +2626,10 @@
   <dimension ref="A1:O873"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="I19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2660,7 +2666,7 @@
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="44" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D2" s="43"/>
       <c r="F2" s="7"/>
@@ -2680,7 +2686,7 @@
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="51" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D3" s="43"/>
       <c r="F3" s="7"/>
@@ -2698,7 +2704,7 @@
       <c r="A4" s="47"/>
       <c r="B4" s="48"/>
       <c r="C4" s="51" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D4" s="43"/>
       <c r="E4" s="2"/>
@@ -2713,11 +2719,11 @@
       <c r="N4" s="9"/>
       <c r="O4" s="6"/>
     </row>
-    <row r="5" spans="1:15" ht="13.8" customHeight="1">
+    <row r="5" spans="1:15" ht="13.95" customHeight="1">
       <c r="A5" s="49"/>
       <c r="B5" s="50"/>
       <c r="C5" s="51" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D5" s="43"/>
       <c r="F5" s="7"/>
@@ -2840,13 +2846,13 @@
         <v>44979</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="19" t="s">
@@ -2879,13 +2885,13 @@
         <v>44979</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="J11" s="19"/>
       <c r="K11" s="19" t="s">
@@ -2918,13 +2924,13 @@
         <v>44979</v>
       </c>
       <c r="G12" s="37" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I12" s="37" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="J12" s="19"/>
       <c r="K12" s="19" t="s">
@@ -2957,13 +2963,13 @@
         <v>45009</v>
       </c>
       <c r="G13" s="37" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H13" s="37" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="I13" s="37" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="J13" s="19"/>
       <c r="K13" s="19" t="s">
@@ -2996,13 +3002,13 @@
         <v>44979</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H14" s="37" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I14" s="37" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="J14" s="19"/>
       <c r="K14" s="19" t="s">
@@ -3015,7 +3021,7 @@
       <c r="N14" s="20"/>
       <c r="O14" s="21"/>
     </row>
-    <row r="15" spans="1:15" ht="100.8">
+    <row r="15" spans="1:15" ht="288">
       <c r="A15" s="14">
         <v>28</v>
       </c>
@@ -3035,16 +3041,16 @@
         <v>44957</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H15" s="37" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I15" s="37" t="s">
         <v>91</v>
       </c>
       <c r="J15" s="38" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="K15" s="19" t="s">
         <v>44</v>
@@ -3058,7 +3064,7 @@
       </c>
       <c r="O15" s="21"/>
     </row>
-    <row r="16" spans="1:15" ht="115.2">
+    <row r="16" spans="1:15" ht="288">
       <c r="A16" s="14">
         <v>36</v>
       </c>
@@ -3078,16 +3084,16 @@
         <v>44957</v>
       </c>
       <c r="G16" s="37" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H16" s="37" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I16" s="37" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J16" s="38" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="K16" s="19" t="s">
         <v>44</v>
@@ -3101,7 +3107,7 @@
       </c>
       <c r="O16" s="21"/>
     </row>
-    <row r="17" spans="1:15" ht="43.2">
+    <row r="17" spans="1:15" ht="259.2">
       <c r="A17" s="14">
         <v>44</v>
       </c>
@@ -3124,7 +3130,7 @@
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
       <c r="J17" s="38" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="K17" s="19" t="s">
         <v>44</v>
@@ -3138,7 +3144,7 @@
       </c>
       <c r="O17" s="21"/>
     </row>
-    <row r="18" spans="1:15" ht="115.2">
+    <row r="18" spans="1:15" ht="288">
       <c r="A18" s="14">
         <v>52</v>
       </c>
@@ -3167,7 +3173,7 @@
         <v>91</v>
       </c>
       <c r="J18" s="38" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="K18" s="19" t="s">
         <v>44</v>
@@ -3181,7 +3187,7 @@
       </c>
       <c r="O18" s="21"/>
     </row>
-    <row r="19" spans="1:15" ht="115.2">
+    <row r="19" spans="1:15" ht="288">
       <c r="A19" s="14">
         <v>53</v>
       </c>
@@ -3210,7 +3216,7 @@
         <v>94</v>
       </c>
       <c r="J19" s="38" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="K19" s="19" t="s">
         <v>44</v>
@@ -3224,7 +3230,7 @@
       </c>
       <c r="O19" s="21"/>
     </row>
-    <row r="20" spans="1:15" ht="115.2">
+    <row r="20" spans="1:15" ht="288">
       <c r="A20" s="14">
         <v>54</v>
       </c>
@@ -3253,7 +3259,7 @@
         <v>97</v>
       </c>
       <c r="J20" s="38" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="K20" s="19" t="s">
         <v>44</v>
@@ -3267,7 +3273,7 @@
       </c>
       <c r="O20" s="21"/>
     </row>
-    <row r="21" spans="1:15" ht="115.2">
+    <row r="21" spans="1:15" ht="288">
       <c r="A21" s="14">
         <v>55</v>
       </c>
@@ -3296,7 +3302,7 @@
         <v>99</v>
       </c>
       <c r="J21" s="38" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="K21" s="19" t="s">
         <v>44</v>
@@ -3310,7 +3316,7 @@
       </c>
       <c r="O21" s="21"/>
     </row>
-    <row r="22" spans="1:15" ht="115.2">
+    <row r="22" spans="1:15" ht="288">
       <c r="A22" s="14">
         <v>56</v>
       </c>
@@ -3339,7 +3345,7 @@
         <v>103</v>
       </c>
       <c r="J22" s="38" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="K22" s="19" t="s">
         <v>44</v>
@@ -3353,7 +3359,7 @@
       </c>
       <c r="O22" s="21"/>
     </row>
-    <row r="23" spans="1:15" ht="115.2">
+    <row r="23" spans="1:15" ht="288">
       <c r="A23" s="14">
         <v>57</v>
       </c>
@@ -3382,7 +3388,7 @@
         <v>105</v>
       </c>
       <c r="J23" s="38" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="K23" s="19" t="s">
         <v>44</v>
@@ -3425,7 +3431,7 @@
         <v>109</v>
       </c>
       <c r="J24" s="38" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="K24" s="19" t="s">
         <v>44</v>
@@ -3439,7 +3445,7 @@
       </c>
       <c r="O24" s="21"/>
     </row>
-    <row r="25" spans="1:15" ht="115.2">
+    <row r="25" spans="1:15" ht="288">
       <c r="A25" s="14">
         <v>59</v>
       </c>
@@ -3468,7 +3474,7 @@
         <v>111</v>
       </c>
       <c r="J25" s="38" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="K25" s="19" t="s">
         <v>44</v>
@@ -3482,7 +3488,7 @@
       </c>
       <c r="O25" s="21"/>
     </row>
-    <row r="26" spans="1:15" ht="115.2">
+    <row r="26" spans="1:15" ht="288">
       <c r="A26" s="14">
         <v>60</v>
       </c>
@@ -3511,7 +3517,7 @@
         <v>114</v>
       </c>
       <c r="J26" s="38" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="K26" s="19" t="s">
         <v>44</v>
@@ -3542,19 +3548,19 @@
         <v>68</v>
       </c>
       <c r="F27" s="17">
-        <v>44227</v>
+        <v>44286</v>
       </c>
       <c r="G27" s="37" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="H27" s="37" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="I27" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="J27" s="39" t="s">
-        <v>119</v>
+        <v>146</v>
+      </c>
+      <c r="J27" s="38" t="s">
+        <v>143</v>
       </c>
       <c r="K27" s="19" t="s">
         <v>44</v>
@@ -3566,11 +3572,9 @@
       <c r="N27" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="O27" s="39" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="115.2">
+      <c r="O27" s="39"/>
+    </row>
+    <row r="28" spans="1:15" ht="288">
       <c r="A28" s="14">
         <v>62</v>
       </c>
@@ -3590,16 +3594,16 @@
         <v>44227</v>
       </c>
       <c r="G28" s="37" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H28" s="37" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I28" s="37" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="J28" s="38" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="K28" s="19" t="s">
         <v>44</v>
